--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_20_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1060692.672145004</v>
+        <v>-1063241.329331025</v>
       </c>
     </row>
     <row r="7">
@@ -668,10 +668,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>29.38892166358637</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>310.4847784432063</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>101.8601463141005</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>118.9901385224135</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>229.8934112337062</v>
       </c>
       <c r="F5" t="n">
-        <v>200.1627776403531</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1102,25 +1102,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>120.1728562159156</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>92.7224286874786</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>120.1356655916165</v>
       </c>
       <c r="G8" t="n">
-        <v>352.0975552298093</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>25.8261518107752</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>212.6180720598446</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>71.05846343488149</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>33.82891891787523</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>22.54881804343128</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>57.65182679923862</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>285.5970594671154</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716084</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2290,7 +2290,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>167.9698660663631</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U25" t="n">
-        <v>7.069540131684448</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>122.602876259995</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>56.04917322725592</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2798,7 +2798,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>97.75513637220288</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>164.2607468869783</v>
+        <v>164.2607468869786</v>
       </c>
       <c r="C34" t="n">
-        <v>151.6755878036688</v>
+        <v>151.6755878036691</v>
       </c>
       <c r="D34" t="n">
-        <v>133.0442397232534</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>113.54604673672</v>
+        <v>56.1722038850962</v>
       </c>
       <c r="F34" t="n">
-        <v>129.8498147279722</v>
+        <v>129.8498147279725</v>
       </c>
       <c r="G34" t="n">
-        <v>149.9529049973098</v>
+        <v>149.9529049973101</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>124.7234795512651</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>65.69460302360679</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.80401341516266</v>
+        <v>50.80401341516294</v>
       </c>
       <c r="S34" t="n">
-        <v>165.4550527066856</v>
+        <v>165.4550527066858</v>
       </c>
       <c r="T34" t="n">
-        <v>201.8342170323293</v>
+        <v>201.8342170323295</v>
       </c>
       <c r="U34" t="n">
-        <v>270.6132410942852</v>
+        <v>270.6132410942854</v>
       </c>
       <c r="V34" t="n">
-        <v>236.566410028869</v>
+        <v>236.5664100288693</v>
       </c>
       <c r="W34" t="n">
-        <v>270.951765041632</v>
+        <v>270.9517650416323</v>
       </c>
       <c r="X34" t="n">
-        <v>210.1384220940782</v>
+        <v>210.1384220940784</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.0134200571358</v>
+        <v>203.013420057136</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1892.184635123826</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C2" t="n">
-        <v>1523.222118183415</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D2" t="n">
-        <v>1164.956419576664</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E2" t="n">
-        <v>779.1681669784198</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052369</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3295.920042151003</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3295.920042151003</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U2" t="n">
-        <v>3042.389565424839</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>3042.389565424839</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W2" t="n">
-        <v>3042.389565424839</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X2" t="n">
-        <v>2668.92380716376</v>
+        <v>2588.318918149023</v>
       </c>
       <c r="Y2" t="n">
-        <v>2278.784475187948</v>
+        <v>2274.697929822552</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>646.6939999491683</v>
+        <v>879.9099329995257</v>
       </c>
       <c r="C4" t="n">
-        <v>477.7578170212613</v>
+        <v>710.9737500716188</v>
       </c>
       <c r="D4" t="n">
-        <v>477.7578170212613</v>
+        <v>560.8571106592831</v>
       </c>
       <c r="E4" t="n">
-        <v>477.7578170212613</v>
+        <v>412.9440170768898</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279957</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764919</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760412</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581906</v>
@@ -4504,7 +4504,7 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
@@ -4513,25 +4513,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242374</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242374</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036487</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W4" t="n">
-        <v>1169.327103036487</v>
+        <v>879.9099329995257</v>
       </c>
       <c r="X4" t="n">
-        <v>1049.135043922938</v>
+        <v>879.9099329995257</v>
       </c>
       <c r="Y4" t="n">
-        <v>828.342464779408</v>
+        <v>879.9099329995257</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1480.516858765519</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C5" t="n">
-        <v>1111.554341825107</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="D5" t="n">
-        <v>1111.554341825107</v>
+        <v>1464.366537431292</v>
       </c>
       <c r="E5" t="n">
-        <v>725.7660892268627</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066532</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805452</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y5" t="n">
-        <v>1867.11669882964</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="6">
@@ -4620,31 +4620,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460.8443805240842</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="C7" t="n">
-        <v>460.8443805240842</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W7" t="n">
-        <v>782.4929502983425</v>
+        <v>1235.288616348071</v>
       </c>
       <c r="X7" t="n">
-        <v>554.5033994003252</v>
+        <v>1007.299065450054</v>
       </c>
       <c r="Y7" t="n">
-        <v>460.8443805240842</v>
+        <v>786.5064863065235</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1881.708680670284</v>
+        <v>1311.909787855438</v>
       </c>
       <c r="C8" t="n">
-        <v>1512.746163729872</v>
+        <v>942.9472709150266</v>
       </c>
       <c r="D8" t="n">
-        <v>1154.480465123122</v>
+        <v>584.6815723082761</v>
       </c>
       <c r="E8" t="n">
-        <v>768.6922125248775</v>
+        <v>198.8933197100319</v>
       </c>
       <c r="F8" t="n">
-        <v>761.746711775674</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734406</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2153.285934409297</v>
+        <v>726.2447449267036</v>
       </c>
       <c r="C10" t="n">
-        <v>2153.285934409297</v>
+        <v>557.3085619987967</v>
       </c>
       <c r="D10" t="n">
-        <v>2003.169294996962</v>
+        <v>407.1919225864609</v>
       </c>
       <c r="E10" t="n">
-        <v>1855.256201414568</v>
+        <v>407.1919225864609</v>
       </c>
       <c r="F10" t="n">
-        <v>1708.366253916658</v>
+        <v>260.3019750885505</v>
       </c>
       <c r="G10" t="n">
-        <v>1708.366253916658</v>
+        <v>92.5991384632695</v>
       </c>
       <c r="H10" t="n">
-        <v>1562.149067134516</v>
+        <v>92.5991384632695</v>
       </c>
       <c r="I10" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>3325.605821609171</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>3133.919937435997</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>2912.153322005523</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>2912.153322005523</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V10" t="n">
-        <v>2657.468833799636</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W10" t="n">
-        <v>2368.051663762676</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="X10" t="n">
-        <v>2153.285934409297</v>
+        <v>1128.685788900473</v>
       </c>
       <c r="Y10" t="n">
-        <v>2153.285934409297</v>
+        <v>907.8932097569433</v>
       </c>
     </row>
     <row r="11">
@@ -5033,31 +5033,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5118,22 +5118,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811335</v>
+        <v>707.6725264685178</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532266</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408908</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408908</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429805</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038343</v>
@@ -5209,10 +5209,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2125.286319795768</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2125.286319795768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.184661552921</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>889.3209912987576</v>
       </c>
     </row>
     <row r="14">
@@ -5255,40 +5255,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5297,28 +5297,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>954.2476448606602</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>785.3114619327533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>635.1948225204175</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E16" t="n">
-        <v>487.2817289380243</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>340.391781440114</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782961</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1135.8961096909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991042</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711973</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2321.683211348583</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2102.081746371524</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1813.006519715722</v>
+        <v>1688.979202260897</v>
       </c>
       <c r="V19" t="n">
-        <v>1558.322031509835</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W19" t="n">
-        <v>1268.904861472874</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>1268.904861472874</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>1048.112282329344</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="20">
@@ -5738,16 +5738,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5759,10 +5759,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5835,22 +5835,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>615.644930552589</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270442</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2027.396014107402</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1738.3207874516</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1483.636299245714</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1194.219129208753</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>966.2295783107356</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,25 +5978,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111707</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188009</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>402.724593490894</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908938</v>
@@ -6151,46 +6151,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1970.320130882545</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1715.635642676658</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1426.218472639697</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1198.22892174168</v>
+        <v>974.1018203925707</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>753.3092412490406</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6236,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>372.4964262156759</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>867.8220324314346</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>762.5477693179088</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5477693179088</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>612.431129905573</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>464.51803632318</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6280888252697</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>150.4319895401496</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,16 +6455,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,28 +6473,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123003</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3122.226968733741</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C31" t="n">
-        <v>3023.484406741617</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741617</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159224</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650996</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673938</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018136</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812249</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775288</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>3343.019547877271</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y31" t="n">
-        <v>3122.226968733741</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6674,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>778.7344347539561</v>
+        <v>778.7344347539513</v>
       </c>
       <c r="C34" t="n">
-        <v>625.5267703058057</v>
+        <v>625.5267703058007</v>
       </c>
       <c r="D34" t="n">
-        <v>491.1386493732266</v>
+        <v>625.5267703058007</v>
       </c>
       <c r="E34" t="n">
-        <v>376.4456728714892</v>
+        <v>568.7871704218653</v>
       </c>
       <c r="F34" t="n">
-        <v>245.2842438533354</v>
+        <v>437.6257414037112</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>286.1581605983475</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>160.174847920302</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>189.4682024403052</v>
+        <v>189.4682024403049</v>
       </c>
       <c r="K34" t="n">
-        <v>466.5729859278533</v>
+        <v>466.5729859278526</v>
       </c>
       <c r="L34" t="n">
-        <v>872.3871010658029</v>
+        <v>872.3871010658019</v>
       </c>
       <c r="M34" t="n">
-        <v>1309.812324758847</v>
+        <v>1309.812324758846</v>
       </c>
       <c r="N34" t="n">
-        <v>1742.637717380865</v>
+        <v>1742.637717380863</v>
       </c>
       <c r="O34" t="n">
-        <v>2127.582519051859</v>
+        <v>2127.582519051857</v>
       </c>
       <c r="P34" t="n">
-        <v>2435.673495587427</v>
+        <v>2435.673495587425</v>
       </c>
       <c r="Q34" t="n">
-        <v>2570.287251276336</v>
+        <v>2570.287251276333</v>
       </c>
       <c r="R34" t="n">
-        <v>2518.970066008495</v>
+        <v>2518.970066008492</v>
       </c>
       <c r="S34" t="n">
-        <v>2351.843750143156</v>
+        <v>2351.843750143153</v>
       </c>
       <c r="T34" t="n">
-        <v>2147.970803645854</v>
+        <v>2147.970803645851</v>
       </c>
       <c r="U34" t="n">
-        <v>1874.624095469808</v>
+        <v>1874.624095469805</v>
       </c>
       <c r="V34" t="n">
-        <v>1635.668125743678</v>
+        <v>1635.668125743674</v>
       </c>
       <c r="W34" t="n">
-        <v>1361.979474186473</v>
+        <v>1361.97947418647</v>
       </c>
       <c r="X34" t="n">
-        <v>1149.718441768213</v>
+        <v>1149.718441768209</v>
       </c>
       <c r="Y34" t="n">
-        <v>944.6543811044392</v>
+        <v>944.6543811044347</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,13 +6947,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852255</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>740.5562989961526</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,13 +7075,13 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
         <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7093,13 +7093,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,13 +7108,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
         <v>2596.781734931274</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,10 +7184,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,13 +7248,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7266,13 +7266,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,7 +7306,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
         <v>782.5512955656818</v>
@@ -7321,7 +7321,7 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,10 +7330,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311325</v>
@@ -7354,7 +7354,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7403,25 +7403,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
@@ -7591,19 +7591,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>372.4964262156764</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>867.8220324314351</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2092.798483612594</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,10 +7840,10 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X46" t="n">
         <v>1280.33868158239</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.167155344068306e-13</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>79.79884012458942</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>75.75316021284732</v>
       </c>
     </row>
     <row r="3">
@@ -22702,22 +22702,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>43.56090170883074</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>106.7195168666236</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>146.3469868924067</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>191.8807364711619</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>65.54986409393057</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.421048022929</v>
       </c>
       <c r="G16" t="n">
-        <v>142.9753202488376</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,22 +23938,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>123.374459202406</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.5874149221287643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>49.43558426092515</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U25" t="n">
-        <v>279.1149342575597</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>84.24553961896794</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>69.49168472642495</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>133.0442397232536</v>
       </c>
       <c r="E34" t="n">
-        <v>17.31668261489013</v>
+        <v>74.69052546651423</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>124.7234795512649</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>65.69460302360653</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170498.5494854603</v>
+        <v>170498.5494854602</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
@@ -26320,7 +26320,7 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="F2" t="n">
         <v>201786.6499225016</v>
@@ -26329,25 +26329,25 @@
         <v>201786.6499225015</v>
       </c>
       <c r="H2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="I2" t="n">
         <v>201786.6499225015</v>
       </c>
       <c r="J2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="K2" t="n">
         <v>201786.6499225015</v>
       </c>
       <c r="L2" t="n">
-        <v>204014.0338749324</v>
+        <v>204014.0338749321</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="O2" t="n">
         <v>205260.442466071</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12456.98663596719</v>
+        <v>12456.98663596699</v>
       </c>
       <c r="M3" t="n">
-        <v>92025.75929317641</v>
+        <v>92025.75929317655</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.400124791776761e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12820.12292715297</v>
+        <v>12820.12292715301</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26430,34 +26430,34 @@
         <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="H4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
+        <v>12996.86414683046</v>
+      </c>
+      <c r="J4" t="n">
         <v>12996.86414683044</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>12996.86414683042</v>
       </c>
-      <c r="K4" t="n">
-        <v>12996.86414683041</v>
-      </c>
       <c r="L4" t="n">
-        <v>18120.57590149349</v>
+        <v>18120.5759014934</v>
       </c>
       <c r="M4" t="n">
         <v>20987.7234099239</v>
       </c>
       <c r="N4" t="n">
-        <v>20987.72340992389</v>
+        <v>20987.7234099239</v>
       </c>
       <c r="O4" t="n">
-        <v>20987.72340992389</v>
+        <v>20987.72340992394</v>
       </c>
       <c r="P4" t="n">
-        <v>20987.72340992391</v>
+        <v>20987.7234099239</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1279000.259730679</v>
+        <v>-1279347.878660485</v>
       </c>
       <c r="C6" t="n">
-        <v>5142.602986496175</v>
+        <v>5142.602986495738</v>
       </c>
       <c r="D6" t="n">
-        <v>5142.602986495767</v>
+        <v>5142.602986495811</v>
       </c>
       <c r="E6" t="n">
-        <v>-237745.2058555912</v>
+        <v>-237779.9437810269</v>
       </c>
       <c r="F6" t="n">
-        <v>87667.25595176408</v>
+        <v>87632.51802632834</v>
       </c>
       <c r="G6" t="n">
-        <v>87667.25595176399</v>
+        <v>87632.51802632827</v>
       </c>
       <c r="H6" t="n">
-        <v>87667.25595176402</v>
+        <v>87632.51802632844</v>
       </c>
       <c r="I6" t="n">
-        <v>87667.25595176381</v>
+        <v>87632.51802632827</v>
       </c>
       <c r="J6" t="n">
-        <v>-129863.9464455136</v>
+        <v>-129898.6843709492</v>
       </c>
       <c r="K6" t="n">
-        <v>87667.25595176397</v>
+        <v>87632.5180263283</v>
       </c>
       <c r="L6" t="n">
-        <v>71004.88350169068</v>
+        <v>70992.4194157793</v>
       </c>
       <c r="M6" t="n">
-        <v>-10917.15609094486</v>
+        <v>-10917.15609094495</v>
       </c>
       <c r="N6" t="n">
-        <v>81108.60320223149</v>
+        <v>81108.60320223161</v>
       </c>
       <c r="O6" t="n">
-        <v>81108.60320223181</v>
+        <v>81108.60320223165</v>
       </c>
       <c r="P6" t="n">
-        <v>81108.60320223152</v>
+        <v>81108.60320223164</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26790,16 +26790,16 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="M2" t="n">
-        <v>8.713414197080718</v>
+        <v>8.713414197080969</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>152.0369588385555</v>
       </c>
       <c r="F5" t="n">
-        <v>206.7132681013584</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>166.3501421206754</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>125.8622246646162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>286.7403801500949</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>58.82417042364415</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>70.52626859906289</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>13.0915833291925</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28494,7 +28494,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2.262368070660159e-12</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29518,7 +29518,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="C34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="D34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="E34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="F34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="G34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="H34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="I34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="J34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="K34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="L34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="M34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="N34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="O34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="P34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="R34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="S34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="T34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="U34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="V34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="W34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="X34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.57123329495899</v>
+        <v>15.57123329495874</v>
       </c>
     </row>
     <row r="35">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>543.0832917018711</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32479,7 +32479,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32555,7 +32555,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>622.4211036182646</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32789,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>508.8976500257889</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33014,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33026,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>266.3926848685833</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>301.6445156724557</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>198.560797075695</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>704.1404939038093</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34211,10 +34211,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>535.8585467435948</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>266.392684868584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>409.1088842875408</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,19 +35729,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,31 +35957,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36203,7 +36203,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>483.8667238383904</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>366.7636161037706</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295339</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>128.5512458942243</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>159.0482712280113</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>55.96455263125056</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.6177165579124</v>
+        <v>96.6177165579121</v>
       </c>
       <c r="K34" t="n">
-        <v>279.903821704594</v>
+        <v>279.9038217045937</v>
       </c>
       <c r="L34" t="n">
-        <v>409.9132476140905</v>
+        <v>409.9132476140902</v>
       </c>
       <c r="M34" t="n">
-        <v>441.8436602960041</v>
+        <v>441.8436602960039</v>
       </c>
       <c r="N34" t="n">
-        <v>437.1973662848665</v>
+        <v>437.1973662848662</v>
       </c>
       <c r="O34" t="n">
-        <v>388.8331330010045</v>
+        <v>388.8331330010042</v>
       </c>
       <c r="P34" t="n">
-        <v>311.203006601584</v>
+        <v>311.2030066015837</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.9734905948574</v>
+        <v>135.9734905948571</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>572.7987818204761</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,25 +37464,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>393.2623022991504</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>128.551245894225</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
